--- a/信用卡贷后系统/二期需求/调整临时额度、固定额度和卡片状态U变A/调整临时额度、固定额度和卡片状态U变A需求-工作量.xlsx
+++ b/信用卡贷后系统/二期需求/调整临时额度、固定额度和卡片状态U变A/调整临时额度、固定额度和卡片状态U变A需求-工作量.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>重庆农村商业银行工作量评估表</t>
   </si>
@@ -238,44 +238,11 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">需求分析、确认、接口输入、输出设计 1人天
+      <t>需求分析、确认、接口输入、输出设计 1人天
 取决策推送文件入库 2人天
 临时额度查询接口 1人天
 固定额度查询接口 1人天
-临额查询对外服务esb配置 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">人天
-固额查询对外服务esb配置 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
+临额查询对外服务esb配置 0.5</t>
     </r>
     <r>
       <rPr>
@@ -286,25 +253,15 @@
         <scheme val="minor"/>
       </rPr>
       <t>人天
-对外联调 4人天</t>
+固额查询对外服务esb配置 0.5人天
+对外联调 3人天</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">接口输入、输出接口设计 1人天
-调整临时额度对外服务接口esb配置 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
+      <t>接口输入、输出接口设计 1人天
+调整临时额度对外服务接口esb配置 0.5</t>
     </r>
     <r>
       <rPr>
@@ -314,64 +271,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">人天
-调整固定额度对外服务接口esb配置 </t>
+      <t>人天
+调整固定额度对外服务接口esb配置 0.5人天
+调用新核心临时额度调整接口esb配置 0.5人天
+调用新核心临时额度调整接口 0.5人天
+调用银数临时额度调整接口esb配置 0.5人天
+调用银数临时额度调整接口 0.5人天
+调用新核心固定额度调整接口esb配置 0.5人天
+调用新核心固定额度调整接口 0.5人天
+调用银数固定额度调整接口esb配置 0.5人天
+调用银数固定额度调整接口 1人天
+对外联调3人天</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">人天
-调用新核心临时额度调整接口esb配置 1人天
-调用新核心临时额度调整接口 1人天
-调用银数临时额度调整接口esb配置 1人天
-调用银数临时额度调整接口 1人天
-调用新核心固定额度调整接口esb配置 1人天
-调用新核心固定额度调整接口 1人天
-调用银数固定额度调整接口esb配置 1人天
-调用银数固定额度调整接口 1人天
-</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求分析、确认、接口输入、输出设计 1人天
-取决策推送文件入库 2人天
-临时额度查询接口 1人天
-固定额度查询接口 1人天
-临额查询对外服务esb配置 2人天
-固额查询对外服务esb配置 2人天
-对外联调 4人天</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口输入、输出接口设计 1人天
-调整临时额度对外服务接口esb配置 2人天
-调整固定额度对外服务接口esb配置 2人天
-调用新核心临时额度调整接口esb配置 1人天
-调用新核心临时额度调整接口 1人天
-调用银数临时额度调整接口esb配置 1人天
-调用银数临时额度调整接口 1人天
-调用新核心固定额度调整接口esb配置 1人天
-调用新核心固定额度调整接口 1人天
-调用银数固定额度调整接口esb配置 1人天
-调用银数固定额度调整接口 1人天
-对外联调 4人天</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -463,14 +374,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -623,7 +526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,6 +616,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,15 +696,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1102,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1116,22 +1016,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1">
       <c r="A3" s="15" t="s">
@@ -1140,10 +1040,10 @@
       <c r="B3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1">
@@ -1153,10 +1053,10 @@
       <c r="B4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
@@ -1168,22 +1068,22 @@
       <c r="B5" s="23">
         <v>44342</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="65" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:5" ht="27" customHeight="1">
       <c r="A7" s="17" t="s">
@@ -1191,69 +1091,69 @@
       </c>
       <c r="B7" s="24">
         <f>C17</f>
-        <v>1.4090909090909092</v>
+        <v>1</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5" ht="27" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="39"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5" ht="35.5" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" ht="59" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" ht="27" customHeight="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:5" ht="64" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5" ht="17" customHeight="1">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5" ht="70">
       <c r="A14" s="16" t="s">
@@ -1272,34 +1172,34 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="104">
+    <row r="15" spans="1:5" ht="150">
       <c r="A15" s="16">
         <v>1</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="5">
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="260">
+      <c r="E15" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="345">
       <c r="A16" s="16">
         <v>2</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="32" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="5">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="56" t="s">
-        <v>58</v>
+      <c r="E16" s="31" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="42">
@@ -1309,7 +1209,7 @@
       <c r="B17" s="30"/>
       <c r="C17" s="13">
         <f>SUM(C15:C16)/22</f>
-        <v>1.4090909090909092</v>
+        <v>1</v>
       </c>
       <c r="D17" s="13">
         <f>SUM(D15:D16)/22</f>
@@ -1331,11 +1231,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="A13:E13"/>
@@ -1344,6 +1239,11 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.55000000000000004" right="0.196527777777778" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
@@ -1361,11 +1261,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="S3" sqref="S3:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1378,45 +1278,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="55" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="50" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="50" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="50" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="48" t="s">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="50" t="s">
         <v>38</v>
       </c>
       <c r="W1" s="11"/>
@@ -1424,10 +1324,10 @@
       <c r="Y1" s="11"/>
     </row>
     <row r="2" spans="1:25" ht="36" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="3" t="s">
         <v>39</v>
       </c>
@@ -1470,7 +1370,7 @@
       <c r="R2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="49"/>
+      <c r="S2" s="51"/>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="12"/>
@@ -1482,11 +1382,11 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="31" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="6">
@@ -1514,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="M3" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N3" s="6">
         <v>0</v>
       </c>
       <c r="O3" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P3" s="5">
         <v>0</v>
@@ -1533,18 +1433,18 @@
       </c>
       <c r="S3" s="5">
         <f>SUM(E3:R3)</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="180">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="189" customHeight="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="31" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="6">
@@ -1572,13 +1472,13 @@
         <v>0</v>
       </c>
       <c r="M4" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N4" s="6">
         <v>0</v>
       </c>
       <c r="O4" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4" s="22">
         <v>0</v>
@@ -1591,7 +1491,7 @@
       </c>
       <c r="S4" s="5">
         <f>SUM(E4:R4)</f>
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1">
@@ -1602,63 +1502,63 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="7">
-        <f>SUM(E3:E4)</f>
+        <f t="shared" ref="E5:R5" si="0">SUM(E3:E4)</f>
         <v>1</v>
       </c>
       <c r="F5" s="7">
-        <f>SUM(F3:F4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G5" s="7">
-        <f>SUM(G3:G4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="7">
-        <f>SUM(H3:H4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="7">
-        <f>SUM(I3:I4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="7">
-        <f>SUM(J3:J4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="7">
-        <f>SUM(K3:K4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L5" s="7">
-        <f>SUM(L3:L4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="7">
-        <f>SUM(M3:M4)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="N5" s="7">
-        <f>SUM(N3:N4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5" s="7">
-        <f>SUM(O3:O4)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="P5" s="7">
-        <f>SUM(P3:P4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q5" s="7">
-        <f>SUM(Q3:Q4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R5" s="7">
-        <f>SUM(R3:R4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S5" s="7">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="T5"/>
     </row>
@@ -1683,7 +1583,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="13">
         <f>S5/22</f>
-        <v>1.4090909090909092</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
